--- a/biology/Botanique/Pyrus/Pyrus.xlsx
+++ b/biology/Botanique/Pyrus/Pyrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrus est un genre de plantes à fleurs de la famille des Rosaceae. C'est le genre des poiriers, arbres qui donnent les poires.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (22 janvier 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (22 janvier 2024) :
 Pyrus acutiserrata Gladkova
 Pyrus armeniacifolia T.T.Yu
 Pyrus asiae-mediae (Popov) Maleev
@@ -593,7 +607,7 @@
 Pyrus xerophila T.T.Yu
 Pyrus yaltirikii Browicz
 Pyrus zangezura Maleev
-Selon GRIN            (22 janvier 2024)[2] :
+Selon GRIN            (22 janvier 2024) :
 Pyrus L. sect. Pashia
 Pyrus armeniacifolia T.T.Yu
 Pyrus betulifolia Bunge
@@ -634,7 +648,7 @@
 Pyrus spinosa Forssk.
 Pyrus syriaca Boiss.
 Pyrus turcomanica Maleev
-Selon l'INPN      (22 janvier 2024)[3] (espèces de France) :
+Selon l'INPN      (22 janvier 2024) (espèces de France) :
 Pyrus calleryana Decne., 1858
 Pyrus communis L., 1753
 Pyrus cordata Desv., 1818
@@ -677,17 +691,19 @@
           <t>Poiriers cultivés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Six espèces sont cultivées[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Six espèces sont cultivées :
 Pyrus communis, le Poirier commun, originaire d'Europe et d'Asie de l'Ouest ; le plus largement cultivé dans les zones tempérées du monde. Ses formes sauvages sont :
 Pyrus communis L. subsp. pyraster (L.) en Europe
 P. communis susp. caucasica (Fed) Browicz dans le Caucase,
 Pyrus pyrifolia, espèce sauvage disparue, originaire de la vallée moyenne du Yangzi jiang, progénitrice de cultivars des poires chinoises ou des nashi
 Pyrus ussuriensis, progénitrice des cultivars de poires de l'Oussouri
 Pyrus bretschneideri, originaire du Hebei, dont sont dérivés les cultivars de poires blanches chinoises
-Pyrus sinkiangensis Y.T. Yu., poirier du Xinjiang[5]
-Pyrus pashia P. Don. cultivé en Inde du Nord, Népal et Chine méridionale[6]
+Pyrus sinkiangensis Y.T. Yu., poirier du Xinjiang
+Pyrus pashia P. Don. cultivé en Inde du Nord, Népal et Chine méridionale
 			Birnbaum am Lerchenberg (de) : poirier classé Monument naturel en Basse-Franconie (All.).
 			Poirier de Chine, Pyrus calleryana
 			Pyrus communis, caractéristiques : feuilles, fleurs, fruits &amp; détails.
@@ -721,13 +737,15 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Plants of the World online (POWO)                (22 janvier 2024)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (22 janvier 2024) :
 Apirophorum Neck. in Elem. Bot. 2: 72 (1790), opus utique oppr.
 Pirophorum Neck. in Elem. Bot. 2: 72 (1790), opus utique oppr.
 Pyrenia Clairv. in Man. Herbor. Suisse: 161 (1811)
-Selon le Catalogue of Life                                   (22 janvier 2024)[7] :
+Selon le Catalogue of Life                                   (22 janvier 2024) :
 Apirophorum Neck.
 Bollwilleria Zabel
 Chamaemespilus Medik.
